--- a/downloaded_files/MDPS132_Lecture-35637.xlsx
+++ b/downloaded_files/MDPS132_Lecture-35637.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,6 +33,15 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
+    <x:t>1230010</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد عاطف مرعى عبد النعيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Atef Merhy Abdel Naim</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210191</x:t>
   </x:si>
   <x:si>
@@ -66,6 +75,24 @@
     <x:t>Basil Mohamed Shawqi Darwish</x:t>
   </x:si>
   <x:si>
+    <x:t>4250177</x:t>
+  </x:si>
+  <x:si>
+    <x:t>شابى اشرف محمد كامل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shaby Ashraf Mohamed Kamel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250181</x:t>
+  </x:si>
+  <x:si>
+    <x:t>على عبدالرحمن محمد ابراهيم حمزه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali Abdul Rahman Mohamed Ibrahim Hamza</x:t>
+  </x:si>
+  <x:si>
     <x:t>4230155</x:t>
   </x:si>
   <x:si>
@@ -75,6 +102,15 @@
     <x:t>Omar Abdullah</x:t>
   </x:si>
   <x:si>
+    <x:t>4250163</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر مصطفى حسني محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Mostafa Hosni</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240249</x:t>
   </x:si>
   <x:si>
@@ -93,6 +129,24 @@
     <x:t>Hesham Tarek Ahmed Awad</x:t>
   </x:si>
   <x:si>
+    <x:t>4250199</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف ابراهيم سعيد عيد حسانين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yuossef Ibrahem</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250201</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف حسن سيد احمد حسن السيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Hassan Sayed Ahmed Hassan El-Sayed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240398</x:t>
   </x:si>
   <x:si>
@@ -100,6 +154,15 @@
   </x:si>
   <x:si>
     <x:t>Yousef Adel Anwar Ahmed Abdel-jaber</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240190</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف مصطفى احمد محمود عبدالعال</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Mostafa Ahmed Mahmoud</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -215,7 +278,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E9" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -515,7 +578,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T9"/>
+  <x:dimension ref="A1:T16"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -525,7 +588,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="27.310625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="44.990625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -606,7 +669,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45907.5673358796</x:v>
+        <x:v>45919.9982841088</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -634,9 +697,11 @@
       <x:c r="C3" s="2" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="D3" s="2" t="s"/>
+      <x:c r="D3" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
       <x:c r="E3" s="3">
-        <x:v>45908.4193848727</x:v>
+        <x:v>45907.5673358796</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -659,16 +724,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D4" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
+      <x:c r="D4" s="2" t="s"/>
       <x:c r="E4" s="3">
-        <x:v>45907.6677771991</x:v>
+        <x:v>45908.4193848727</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -700,7 +763,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45917.3133189005</x:v>
+        <x:v>45907.6677771991</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -732,7 +795,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6650814815</x:v>
+        <x:v>45917.3133189005</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -764,7 +827,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6651370023</x:v>
+        <x:v>45919.9609886227</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -796,7 +859,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45909.5145849537</x:v>
+        <x:v>45919.9783004977</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -828,7 +891,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45908.4887473727</x:v>
+        <x:v>45906.6650814815</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -845,6 +908,230 @@
       <x:c r="R9" s="2" t="s"/>
       <x:c r="S9" s="2" t="s"/>
       <x:c r="T9" s="2" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:20">
+      <x:c r="A10" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D10" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E10" s="3">
+        <x:v>45919.9902133912</x:v>
+      </x:c>
+      <x:c r="F10" s="2" t="s"/>
+      <x:c r="G10" s="2" t="s"/>
+      <x:c r="H10" s="2" t="s"/>
+      <x:c r="I10" s="2" t="s"/>
+      <x:c r="J10" s="2" t="s"/>
+      <x:c r="K10" s="2" t="s"/>
+      <x:c r="L10" s="2" t="s"/>
+      <x:c r="M10" s="2" t="s"/>
+      <x:c r="N10" s="2" t="s"/>
+      <x:c r="O10" s="2" t="s"/>
+      <x:c r="P10" s="2" t="s"/>
+      <x:c r="Q10" s="2" t="s"/>
+      <x:c r="R10" s="2" t="s"/>
+      <x:c r="S10" s="2" t="s"/>
+      <x:c r="T10" s="2" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:20">
+      <x:c r="A11" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D11" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E11" s="3">
+        <x:v>45907.6651370023</x:v>
+      </x:c>
+      <x:c r="F11" s="2" t="s"/>
+      <x:c r="G11" s="2" t="s"/>
+      <x:c r="H11" s="2" t="s"/>
+      <x:c r="I11" s="2" t="s"/>
+      <x:c r="J11" s="2" t="s"/>
+      <x:c r="K11" s="2" t="s"/>
+      <x:c r="L11" s="2" t="s"/>
+      <x:c r="M11" s="2" t="s"/>
+      <x:c r="N11" s="2" t="s"/>
+      <x:c r="O11" s="2" t="s"/>
+      <x:c r="P11" s="2" t="s"/>
+      <x:c r="Q11" s="2" t="s"/>
+      <x:c r="R11" s="2" t="s"/>
+      <x:c r="S11" s="2" t="s"/>
+      <x:c r="T11" s="2" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:20">
+      <x:c r="A12" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B12" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D12" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E12" s="3">
+        <x:v>45909.5145849537</x:v>
+      </x:c>
+      <x:c r="F12" s="2" t="s"/>
+      <x:c r="G12" s="2" t="s"/>
+      <x:c r="H12" s="2" t="s"/>
+      <x:c r="I12" s="2" t="s"/>
+      <x:c r="J12" s="2" t="s"/>
+      <x:c r="K12" s="2" t="s"/>
+      <x:c r="L12" s="2" t="s"/>
+      <x:c r="M12" s="2" t="s"/>
+      <x:c r="N12" s="2" t="s"/>
+      <x:c r="O12" s="2" t="s"/>
+      <x:c r="P12" s="2" t="s"/>
+      <x:c r="Q12" s="2" t="s"/>
+      <x:c r="R12" s="2" t="s"/>
+      <x:c r="S12" s="2" t="s"/>
+      <x:c r="T12" s="2" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:20">
+      <x:c r="A13" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D13" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E13" s="3">
+        <x:v>45919.9698933218</x:v>
+      </x:c>
+      <x:c r="F13" s="2" t="s"/>
+      <x:c r="G13" s="2" t="s"/>
+      <x:c r="H13" s="2" t="s"/>
+      <x:c r="I13" s="2" t="s"/>
+      <x:c r="J13" s="2" t="s"/>
+      <x:c r="K13" s="2" t="s"/>
+      <x:c r="L13" s="2" t="s"/>
+      <x:c r="M13" s="2" t="s"/>
+      <x:c r="N13" s="2" t="s"/>
+      <x:c r="O13" s="2" t="s"/>
+      <x:c r="P13" s="2" t="s"/>
+      <x:c r="Q13" s="2" t="s"/>
+      <x:c r="R13" s="2" t="s"/>
+      <x:c r="S13" s="2" t="s"/>
+      <x:c r="T13" s="2" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:20">
+      <x:c r="A14" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B14" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D14" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="E14" s="3">
+        <x:v>45919.9825459491</x:v>
+      </x:c>
+      <x:c r="F14" s="2" t="s"/>
+      <x:c r="G14" s="2" t="s"/>
+      <x:c r="H14" s="2" t="s"/>
+      <x:c r="I14" s="2" t="s"/>
+      <x:c r="J14" s="2" t="s"/>
+      <x:c r="K14" s="2" t="s"/>
+      <x:c r="L14" s="2" t="s"/>
+      <x:c r="M14" s="2" t="s"/>
+      <x:c r="N14" s="2" t="s"/>
+      <x:c r="O14" s="2" t="s"/>
+      <x:c r="P14" s="2" t="s"/>
+      <x:c r="Q14" s="2" t="s"/>
+      <x:c r="R14" s="2" t="s"/>
+      <x:c r="S14" s="2" t="s"/>
+      <x:c r="T14" s="2" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:20">
+      <x:c r="A15" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D15" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="E15" s="3">
+        <x:v>45908.4887473727</x:v>
+      </x:c>
+      <x:c r="F15" s="2" t="s"/>
+      <x:c r="G15" s="2" t="s"/>
+      <x:c r="H15" s="2" t="s"/>
+      <x:c r="I15" s="2" t="s"/>
+      <x:c r="J15" s="2" t="s"/>
+      <x:c r="K15" s="2" t="s"/>
+      <x:c r="L15" s="2" t="s"/>
+      <x:c r="M15" s="2" t="s"/>
+      <x:c r="N15" s="2" t="s"/>
+      <x:c r="O15" s="2" t="s"/>
+      <x:c r="P15" s="2" t="s"/>
+      <x:c r="Q15" s="2" t="s"/>
+      <x:c r="R15" s="2" t="s"/>
+      <x:c r="S15" s="2" t="s"/>
+      <x:c r="T15" s="2" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:20">
+      <x:c r="A16" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D16" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="E16" s="3">
+        <x:v>45919.9949282755</x:v>
+      </x:c>
+      <x:c r="F16" s="2" t="s"/>
+      <x:c r="G16" s="2" t="s"/>
+      <x:c r="H16" s="2" t="s"/>
+      <x:c r="I16" s="2" t="s"/>
+      <x:c r="J16" s="2" t="s"/>
+      <x:c r="K16" s="2" t="s"/>
+      <x:c r="L16" s="2" t="s"/>
+      <x:c r="M16" s="2" t="s"/>
+      <x:c r="N16" s="2" t="s"/>
+      <x:c r="O16" s="2" t="s"/>
+      <x:c r="P16" s="2" t="s"/>
+      <x:c r="Q16" s="2" t="s"/>
+      <x:c r="R16" s="2" t="s"/>
+      <x:c r="S16" s="2" t="s"/>
+      <x:c r="T16" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS132_Lecture-35637.xlsx
+++ b/downloaded_files/MDPS132_Lecture-35637.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -136,6 +136,15 @@
   </x:si>
   <x:si>
     <x:t>Yuossef Ibrahem</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف احمد محمد محمد عيسى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yuossef Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>4250201</x:t>
@@ -278,7 +287,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E17" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -578,7 +587,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T16"/>
+  <x:dimension ref="A1:T17"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1051,7 +1060,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45919.9825459491</x:v>
+        <x:v>45921.9223017014</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1083,7 +1092,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45908.4887473727</x:v>
+        <x:v>45919.9825459491</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1115,7 +1124,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45919.9949282755</x:v>
+        <x:v>45908.4887473727</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1132,6 +1141,38 @@
       <x:c r="R16" s="2" t="s"/>
       <x:c r="S16" s="2" t="s"/>
       <x:c r="T16" s="2" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:20">
+      <x:c r="A17" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D17" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E17" s="3">
+        <x:v>45919.9949282755</x:v>
+      </x:c>
+      <x:c r="F17" s="2" t="s"/>
+      <x:c r="G17" s="2" t="s"/>
+      <x:c r="H17" s="2" t="s"/>
+      <x:c r="I17" s="2" t="s"/>
+      <x:c r="J17" s="2" t="s"/>
+      <x:c r="K17" s="2" t="s"/>
+      <x:c r="L17" s="2" t="s"/>
+      <x:c r="M17" s="2" t="s"/>
+      <x:c r="N17" s="2" t="s"/>
+      <x:c r="O17" s="2" t="s"/>
+      <x:c r="P17" s="2" t="s"/>
+      <x:c r="Q17" s="2" t="s"/>
+      <x:c r="R17" s="2" t="s"/>
+      <x:c r="S17" s="2" t="s"/>
+      <x:c r="T17" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS132_Lecture-35637.xlsx
+++ b/downloaded_files/MDPS132_Lecture-35637.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -54,7 +54,10 @@
     <x:t>1220303</x:t>
   </x:si>
   <x:si>
-    <x:t>احمد محمد عزت عطية</x:t>
+    <x:t>احمد محمد عزت عطيه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Mohamed Ezzat Attia</x:t>
   </x:si>
   <x:si>
     <x:t>1230159</x:t>
@@ -738,7 +741,9 @@
       <x:c r="C4" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="D4" s="2" t="s"/>
+      <x:c r="D4" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
       <x:c r="E4" s="3">
         <x:v>45908.4193848727</x:v>
       </x:c>
@@ -763,13 +768,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
         <x:v>45907.6677771991</x:v>
@@ -795,13 +800,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D6" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
         <x:v>45917.3133189005</x:v>
@@ -827,13 +832,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
         <x:v>45919.9609886227</x:v>
@@ -859,13 +864,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
         <x:v>45919.9783004977</x:v>
@@ -891,13 +896,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D9" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
         <x:v>45906.6650814815</x:v>
@@ -923,13 +928,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D10" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
         <x:v>45919.9902133912</x:v>
@@ -955,13 +960,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D11" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
         <x:v>45907.6651370023</x:v>
@@ -987,13 +992,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D12" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
         <x:v>45909.5145849537</x:v>
@@ -1019,13 +1024,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D13" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
         <x:v>45919.9698933218</x:v>
@@ -1051,13 +1056,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D14" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
         <x:v>45921.9223017014</x:v>
@@ -1083,13 +1088,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D15" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
         <x:v>45919.9825459491</x:v>
@@ -1115,13 +1120,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D16" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
         <x:v>45908.4887473727</x:v>
@@ -1147,13 +1152,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D17" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
         <x:v>45919.9949282755</x:v>

--- a/downloaded_files/MDPS132_Lecture-35637.xlsx
+++ b/downloaded_files/MDPS132_Lecture-35637.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -60,6 +60,15 @@
     <x:t>Ahmed Mohamed Ezzat Attia</x:t>
   </x:si>
   <x:si>
+    <x:t>1240018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمود محمد محمد خليفة</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmad Mahmoud Mohamed Mohamed Khalifa</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230159</x:t>
   </x:si>
   <x:si>
@@ -120,7 +129,7 @@
     <x:t>كريم سامح صبري محمد عبد الحليم</x:t>
   </x:si>
   <x:si>
-    <x:t>kareem sameh sabry mohamed</x:t>
+    <x:t>Karim Sameh Sabry Mohamed Abdel Halim</x:t>
   </x:si>
   <x:si>
     <x:t>1230276</x:t>
@@ -290,7 +299,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E17" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E18" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -590,7 +599,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T17"/>
+  <x:dimension ref="A1:T18"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -777,7 +786,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.6677771991</x:v>
+        <x:v>45925.3110492245</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -809,7 +818,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45917.3133189005</x:v>
+        <x:v>45907.6677771991</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -841,7 +850,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45919.9609886227</x:v>
+        <x:v>45917.3133189005</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -873,7 +882,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45919.9783004977</x:v>
+        <x:v>45919.9609886227</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -905,7 +914,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6650814815</x:v>
+        <x:v>45919.9783004977</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -937,7 +946,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45919.9902133912</x:v>
+        <x:v>45906.6650814815</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -969,7 +978,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6651370023</x:v>
+        <x:v>45919.9902133912</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1001,7 +1010,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45909.5145849537</x:v>
+        <x:v>45907.6651370023</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1033,7 +1042,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45919.9698933218</x:v>
+        <x:v>45909.5145849537</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1065,7 +1074,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45921.9223017014</x:v>
+        <x:v>45919.9698933218</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1097,7 +1106,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45919.9825459491</x:v>
+        <x:v>45921.9223017014</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1129,7 +1138,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45908.4887473727</x:v>
+        <x:v>45919.9825459491</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1161,7 +1170,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45919.9949282755</x:v>
+        <x:v>45908.4887473727</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1178,6 +1187,38 @@
       <x:c r="R17" s="2" t="s"/>
       <x:c r="S17" s="2" t="s"/>
       <x:c r="T17" s="2" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:20">
+      <x:c r="A18" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B18" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D18" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E18" s="3">
+        <x:v>45919.9949282755</x:v>
+      </x:c>
+      <x:c r="F18" s="2" t="s"/>
+      <x:c r="G18" s="2" t="s"/>
+      <x:c r="H18" s="2" t="s"/>
+      <x:c r="I18" s="2" t="s"/>
+      <x:c r="J18" s="2" t="s"/>
+      <x:c r="K18" s="2" t="s"/>
+      <x:c r="L18" s="2" t="s"/>
+      <x:c r="M18" s="2" t="s"/>
+      <x:c r="N18" s="2" t="s"/>
+      <x:c r="O18" s="2" t="s"/>
+      <x:c r="P18" s="2" t="s"/>
+      <x:c r="Q18" s="2" t="s"/>
+      <x:c r="R18" s="2" t="s"/>
+      <x:c r="S18" s="2" t="s"/>
+      <x:c r="T18" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS132_Lecture-35637.xlsx
+++ b/downloaded_files/MDPS132_Lecture-35637.xlsx
@@ -1042,7 +1042,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45909.5145849537</x:v>
+        <x:v>45927.4628210995</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>

--- a/downloaded_files/MDPS132_Lecture-35637.xlsx
+++ b/downloaded_files/MDPS132_Lecture-35637.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -130,15 +130,6 @@
   </x:si>
   <x:si>
     <x:t>Karim Sameh Sabry Mohamed Abdel Halim</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230276</x:t>
-  </x:si>
-  <x:si>
-    <x:t>هشام طارق احمد عوض</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hesham Tarek Ahmed Awad</x:t>
   </x:si>
   <x:si>
     <x:t>4250199</x:t>
@@ -299,7 +290,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E18" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E17" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -599,7 +590,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T18"/>
+  <x:dimension ref="A1:T17"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1042,7 +1033,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45927.4628210995</x:v>
+        <x:v>45919.9698933218</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1074,7 +1065,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45919.9698933218</x:v>
+        <x:v>45921.9223017014</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1106,7 +1097,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45921.9223017014</x:v>
+        <x:v>45919.9825459491</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1138,7 +1129,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45919.9825459491</x:v>
+        <x:v>45908.4887473727</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1170,7 +1161,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45908.4887473727</x:v>
+        <x:v>45919.9949282755</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1187,38 +1178,6 @@
       <x:c r="R17" s="2" t="s"/>
       <x:c r="S17" s="2" t="s"/>
       <x:c r="T17" s="2" t="s"/>
-    </x:row>
-    <x:row r="18" spans="1:20">
-      <x:c r="A18" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B18" s="2" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="C18" s="2" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="D18" s="2" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="E18" s="3">
-        <x:v>45919.9949282755</x:v>
-      </x:c>
-      <x:c r="F18" s="2" t="s"/>
-      <x:c r="G18" s="2" t="s"/>
-      <x:c r="H18" s="2" t="s"/>
-      <x:c r="I18" s="2" t="s"/>
-      <x:c r="J18" s="2" t="s"/>
-      <x:c r="K18" s="2" t="s"/>
-      <x:c r="L18" s="2" t="s"/>
-      <x:c r="M18" s="2" t="s"/>
-      <x:c r="N18" s="2" t="s"/>
-      <x:c r="O18" s="2" t="s"/>
-      <x:c r="P18" s="2" t="s"/>
-      <x:c r="Q18" s="2" t="s"/>
-      <x:c r="R18" s="2" t="s"/>
-      <x:c r="S18" s="2" t="s"/>
-      <x:c r="T18" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS132_Lecture-35637.xlsx
+++ b/downloaded_files/MDPS132_Lecture-35637.xlsx
@@ -777,7 +777,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45925.3110492245</x:v>
+        <x:v>45928.7044315972</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
